--- a/other/LynxEPROMPins.xlsx
+++ b/other/LynxEPROMPins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EPROMEmu\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416C2745-B8F7-4D66-B80B-1B6DE283EFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4E19A7-A5A2-49A4-A115-66A6AB19681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39070" yWindow="960" windowWidth="30210" windowHeight="20160" xr2:uid="{518206CF-C42E-4892-BAA6-EB9A8405694A}"/>
     <workbookView visibility="hidden" xWindow="39410" yWindow="1300" windowWidth="30210" windowHeight="20160" xr2:uid="{2DBC9497-B7A9-4A43-AE31-61B6FDAAF2CC}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>GND</t>
   </si>
@@ -138,9 +138,6 @@
     <t>VCC</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>VPP</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>A09</t>
   </si>
   <si>
-    <t>OE/GND</t>
-  </si>
-  <si>
     <t>GPIO6-02</t>
   </si>
   <si>
@@ -361,6 +355,15 @@
   </si>
   <si>
     <t>GPIO9-31</t>
+  </si>
+  <si>
+    <t>OE#</t>
+  </si>
+  <si>
+    <t>CE#</t>
+  </si>
+  <si>
+    <t>PGM#</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="E2" sqref="E2:E3"/>
@@ -735,13 +738,13 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -871,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -888,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -905,7 +908,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -922,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>17</v>
@@ -939,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>18</v>
@@ -956,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>19</v>
@@ -1055,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>24</v>
@@ -1072,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -1095,7 +1098,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1112,7 +1115,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1174,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>40</v>
@@ -1191,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>41</v>
@@ -1208,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1236,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1247,7 +1250,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>0</v>
@@ -1261,10 +1264,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1332,22 +1335,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1">
         <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K1">
         <v>10</v>
@@ -1358,22 +1361,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -1384,16 +1387,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3">
         <v>11</v>
@@ -1404,16 +1407,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K4">
         <v>13</v>
@@ -1424,16 +1427,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1444,16 +1447,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -1464,16 +1467,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K7">
         <v>32</v>
@@ -1484,16 +1487,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1504,29 +1507,29 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>23</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <v>21</v>
@@ -1570,7 +1573,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15">
         <v>38</v>
@@ -1581,7 +1584,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>26</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18">
         <v>27</v>
@@ -1614,7 +1617,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -1622,7 +1625,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>36</v>
@@ -1630,7 +1633,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>37</v>
@@ -1638,7 +1641,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32">
         <v>35</v>
@@ -1646,7 +1649,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>34</v>
@@ -1654,7 +1657,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>45</v>
@@ -1662,7 +1665,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>44</v>
@@ -1670,7 +1673,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>43</v>
@@ -1678,7 +1681,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>42</v>
@@ -1686,7 +1689,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>47</v>
@@ -1694,7 +1697,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>46</v>
@@ -1702,7 +1705,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>28</v>
@@ -1710,7 +1713,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>31</v>
@@ -1718,7 +1721,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>30</v>
@@ -1726,7 +1729,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1734,7 +1737,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1742,7 +1745,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>33</v>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>51</v>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>53</v>
@@ -1790,7 +1793,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>52</v>
@@ -1798,7 +1801,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>49</v>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>50</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -1822,7 +1825,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>29</v>

--- a/other/LynxEPROMPins.xlsx
+++ b/other/LynxEPROMPins.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24809"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EPROMEmu\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4E19A7-A5A2-49A4-A115-66A6AB19681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51F3DE7-9265-47BB-A6C9-E41550277571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39070" yWindow="960" windowWidth="30210" windowHeight="20160" xr2:uid="{518206CF-C42E-4892-BAA6-EB9A8405694A}"/>
-    <workbookView visibility="hidden" xWindow="39410" yWindow="1300" windowWidth="30210" windowHeight="20160" xr2:uid="{2DBC9497-B7A9-4A43-AE31-61B6FDAAF2CC}"/>
+    <workbookView xWindow="5690" yWindow="220" windowWidth="30210" windowHeight="20160" xr2:uid="{518206CF-C42E-4892-BAA6-EB9A8405694A}"/>
+    <workbookView visibility="hidden" xWindow="6030" yWindow="560" windowWidth="30210" windowHeight="20160" xr2:uid="{2DBC9497-B7A9-4A43-AE31-61B6FDAAF2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,13 +370,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -396,14 +402,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D5039A47-F398-4E92-A63E-BE04FE266091}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,7 +726,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="E2" sqref="E2:E3"/>
@@ -749,155 +757,155 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -911,7 +919,7 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -919,313 +927,313 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
         <v>26</v>
       </c>
-      <c r="D16">
-        <v>21</v>
-      </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
       <c r="D17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>23</v>
-      </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>1</v>
-      </c>
       <c r="B30">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -1233,69 +1241,72 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D31">
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1311,7 +1322,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
-    <sortCondition ref="E3:E36"/>
+    <sortCondition ref="C2:C36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/other/LynxEPROMPins.xlsx
+++ b/other/LynxEPROMPins.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EPROMEmu\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51F3DE7-9265-47BB-A6C9-E41550277571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A810E9-546E-402E-B007-1970970DF508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5690" yWindow="220" windowWidth="30210" windowHeight="20160" xr2:uid="{518206CF-C42E-4892-BAA6-EB9A8405694A}"/>
-    <workbookView visibility="hidden" xWindow="6030" yWindow="560" windowWidth="30210" windowHeight="20160" xr2:uid="{2DBC9497-B7A9-4A43-AE31-61B6FDAAF2CC}"/>
+    <workbookView xWindow="46010" yWindow="930" windowWidth="30210" windowHeight="20160" xr2:uid="{518206CF-C42E-4892-BAA6-EB9A8405694A}"/>
+    <workbookView visibility="hidden" xWindow="46350" yWindow="1270" windowWidth="30210" windowHeight="20160" xr2:uid="{2DBC9497-B7A9-4A43-AE31-61B6FDAAF2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="E2" sqref="E2:E3"/>
@@ -1072,7 +1072,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1235,6 +1235,9 @@
       <c r="C30" t="s">
         <v>106</v>
       </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
       <c r="E30" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>108</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
